--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ceacam1-Havcr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ceacam1-Havcr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>43.764002</v>
+        <v>42.59504699999999</v>
       </c>
       <c r="H2">
-        <v>87.52800400000001</v>
+        <v>85.19009399999999</v>
       </c>
       <c r="I2">
-        <v>0.4562749783297458</v>
+        <v>0.3319079553671214</v>
       </c>
       <c r="J2">
-        <v>0.3603824858286639</v>
+        <v>0.2500830206313156</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -567,22 +567,22 @@
         <v>0.428212</v>
       </c>
       <c r="O2">
-        <v>0.003026671901159158</v>
+        <v>0.00352574151030053</v>
       </c>
       <c r="P2">
-        <v>0.003026671901159158</v>
+        <v>0.003530713863869763</v>
       </c>
       <c r="Q2">
-        <v>6.246756941474668</v>
+        <v>6.079903421988</v>
       </c>
       <c r="R2">
-        <v>37.48054164884801</v>
+        <v>36.479420531928</v>
       </c>
       <c r="S2">
-        <v>0.001380994656112646</v>
+        <v>0.001170221655836836</v>
       </c>
       <c r="T2">
-        <v>0.001090759543527506</v>
+        <v>0.000882971588061414</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>43.764002</v>
+        <v>42.59504699999999</v>
       </c>
       <c r="H3">
-        <v>87.52800400000001</v>
+        <v>85.19009399999999</v>
       </c>
       <c r="I3">
-        <v>0.4562749783297458</v>
+        <v>0.3319079553671214</v>
       </c>
       <c r="J3">
-        <v>0.3603824858286639</v>
+        <v>0.2500830206313156</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>23.50933666666667</v>
+        <v>15.10035833333333</v>
       </c>
       <c r="N3">
-        <v>70.52800999999999</v>
+        <v>45.301075</v>
       </c>
       <c r="O3">
-        <v>0.498503419128077</v>
+        <v>0.3729925377820741</v>
       </c>
       <c r="P3">
-        <v>0.498503419128077</v>
+        <v>0.3735185691916712</v>
       </c>
       <c r="Q3">
-        <v>1028.862656898673</v>
+        <v>643.2004729251748</v>
       </c>
       <c r="R3">
-        <v>6173.17594139204</v>
+        <v>3859.202837551049</v>
       </c>
       <c r="S3">
-        <v>0.2274546367599675</v>
+        <v>0.123799190582442</v>
       </c>
       <c r="T3">
-        <v>0.1796519013794647</v>
+        <v>0.09341065204534019</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>43.764002</v>
+        <v>42.59504699999999</v>
       </c>
       <c r="H4">
-        <v>87.52800400000001</v>
+        <v>85.19009399999999</v>
       </c>
       <c r="I4">
-        <v>0.4562749783297458</v>
+        <v>0.3319079553671214</v>
       </c>
       <c r="J4">
-        <v>0.3603824858286639</v>
+        <v>0.2500830206313156</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.269971</v>
+        <v>0.171044</v>
       </c>
       <c r="N4">
-        <v>0.809913</v>
+        <v>0.342088</v>
       </c>
       <c r="O4">
-        <v>0.005724596507065466</v>
+        <v>0.004224941834099771</v>
       </c>
       <c r="P4">
-        <v>0.005724596507065466</v>
+        <v>0.002820600179965717</v>
       </c>
       <c r="Q4">
-        <v>11.815011383942</v>
+        <v>7.285627219067999</v>
       </c>
       <c r="R4">
-        <v>70.890068303652</v>
+        <v>29.142508876272</v>
       </c>
       <c r="S4">
-        <v>0.002611990147207834</v>
+        <v>0.001402291805701071</v>
       </c>
       <c r="T4">
-        <v>0.002063044319582339</v>
+        <v>0.0007053842129990588</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>43.764002</v>
+        <v>42.59504699999999</v>
       </c>
       <c r="H5">
-        <v>87.52800400000001</v>
+        <v>85.19009399999999</v>
       </c>
       <c r="I5">
-        <v>0.4562749783297458</v>
+        <v>0.3319079553671214</v>
       </c>
       <c r="J5">
-        <v>0.3603824858286639</v>
+        <v>0.2500830206313156</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.23778533333333</v>
+        <v>11.833134</v>
       </c>
       <c r="N5">
-        <v>69.71335599999999</v>
+        <v>35.499402</v>
       </c>
       <c r="O5">
-        <v>0.4927453124636983</v>
+        <v>0.2922891353400783</v>
       </c>
       <c r="P5">
-        <v>0.4927453124636983</v>
+        <v>0.2927013507339495</v>
       </c>
       <c r="Q5">
-        <v>1016.978483803571</v>
+        <v>504.0328988872979</v>
       </c>
       <c r="R5">
-        <v>6101.870902821423</v>
+        <v>3024.197393323787</v>
       </c>
       <c r="S5">
-        <v>0.2248273567664578</v>
+        <v>0.09701308928674923</v>
       </c>
       <c r="T5">
-        <v>0.1775767805860893</v>
+        <v>0.07319963793441223</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.08457633333333332</v>
+        <v>42.59504699999999</v>
       </c>
       <c r="H6">
-        <v>0.253729</v>
+        <v>85.19009399999999</v>
       </c>
       <c r="I6">
-        <v>0.000881776412012686</v>
+        <v>0.3319079553671214</v>
       </c>
       <c r="J6">
-        <v>0.001044688369071241</v>
+        <v>0.2500830206313156</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1427373333333334</v>
+        <v>13.23707066666667</v>
       </c>
       <c r="N6">
-        <v>0.428212</v>
+        <v>39.711212</v>
       </c>
       <c r="O6">
-        <v>0.003026671901159158</v>
+        <v>0.3269676435334472</v>
       </c>
       <c r="P6">
-        <v>0.003026671901159158</v>
+        <v>0.3274287660305439</v>
       </c>
       <c r="Q6">
-        <v>0.01207220028311111</v>
+        <v>563.8336471889879</v>
       </c>
       <c r="R6">
-        <v>0.108649802548</v>
+        <v>3383.001883133927</v>
       </c>
       <c r="S6">
-        <v>2.668847889343738E-06</v>
+        <v>0.1085231620363923</v>
       </c>
       <c r="T6">
-        <v>3.161928932135714E-06</v>
+        <v>0.08188437485050273</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -859,40 +859,40 @@
         <v>0.253729</v>
       </c>
       <c r="I7">
-        <v>0.000881776412012686</v>
+        <v>0.0006590333817242832</v>
       </c>
       <c r="J7">
-        <v>0.001044688369071241</v>
+        <v>0.0007448438164860233</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>23.50933666666667</v>
+        <v>0.1427373333333334</v>
       </c>
       <c r="N7">
-        <v>70.52800999999999</v>
+        <v>0.428212</v>
       </c>
       <c r="O7">
-        <v>0.498503419128077</v>
+        <v>0.00352574151030053</v>
       </c>
       <c r="P7">
-        <v>0.498503419128077</v>
+        <v>0.003530713863869763</v>
       </c>
       <c r="Q7">
-        <v>1.988333494365555</v>
+        <v>0.01207220028311111</v>
       </c>
       <c r="R7">
-        <v>17.89500144929</v>
+        <v>0.108649802548</v>
       </c>
       <c r="S7">
-        <v>0.0004395685562948119</v>
+        <v>2.32358135061904E-06</v>
       </c>
       <c r="T7">
-        <v>0.0005207807239053481</v>
+        <v>2.629830389284868E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -921,10 +921,10 @@
         <v>0.253729</v>
       </c>
       <c r="I8">
-        <v>0.000881776412012686</v>
+        <v>0.0006590333817242832</v>
       </c>
       <c r="J8">
-        <v>0.001044688369071241</v>
+        <v>0.0007448438164860233</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.269971</v>
+        <v>15.10035833333333</v>
       </c>
       <c r="N8">
-        <v>0.809913</v>
+        <v>45.301075</v>
       </c>
       <c r="O8">
-        <v>0.005724596507065466</v>
+        <v>0.3729925377820741</v>
       </c>
       <c r="P8">
-        <v>0.005724596507065466</v>
+        <v>0.3735185691916712</v>
       </c>
       <c r="Q8">
-        <v>0.02283315728633333</v>
+        <v>1.277132939852778</v>
       </c>
       <c r="R8">
-        <v>0.205498415577</v>
+        <v>11.494196458675</v>
       </c>
       <c r="S8">
-        <v>5.047814168220542E-06</v>
+        <v>0.0002458145335324428</v>
       </c>
       <c r="T8">
-        <v>5.980419388557145E-06</v>
+        <v>0.0002782129966051231</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -983,45 +983,45 @@
         <v>0.253729</v>
       </c>
       <c r="I9">
-        <v>0.000881776412012686</v>
+        <v>0.0006590333817242832</v>
       </c>
       <c r="J9">
-        <v>0.001044688369071241</v>
+        <v>0.0007448438164860233</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M9">
-        <v>23.23778533333333</v>
+        <v>0.171044</v>
       </c>
       <c r="N9">
-        <v>69.71335599999999</v>
+        <v>0.342088</v>
       </c>
       <c r="O9">
-        <v>0.4927453124636983</v>
+        <v>0.004224941834099771</v>
       </c>
       <c r="P9">
-        <v>0.4927453124636983</v>
+        <v>0.002820600179965717</v>
       </c>
       <c r="Q9">
-        <v>1.965366678280444</v>
+        <v>0.01446627435866667</v>
       </c>
       <c r="R9">
-        <v>17.688300104524</v>
+        <v>0.08679764615199999</v>
       </c>
       <c r="S9">
-        <v>0.0004344911936603098</v>
+        <v>2.784377704515168E-06</v>
       </c>
       <c r="T9">
-        <v>0.0005147652968452</v>
+        <v>2.100906602826829E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>13.24529933333333</v>
+        <v>0.08457633333333332</v>
       </c>
       <c r="H10">
-        <v>39.735898</v>
+        <v>0.253729</v>
       </c>
       <c r="I10">
-        <v>0.138092916326246</v>
+        <v>0.0006590333817242832</v>
       </c>
       <c r="J10">
-        <v>0.1636061722357365</v>
+        <v>0.0007448438164860233</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1427373333333334</v>
+        <v>11.833134</v>
       </c>
       <c r="N10">
-        <v>0.428212</v>
+        <v>35.499402</v>
       </c>
       <c r="O10">
-        <v>0.003026671901159158</v>
+        <v>0.2922891353400783</v>
       </c>
       <c r="P10">
-        <v>0.003026671901159158</v>
+        <v>0.2927013507339495</v>
       </c>
       <c r="Q10">
-        <v>1.890598706041778</v>
+        <v>1.000803085562</v>
       </c>
       <c r="R10">
-        <v>17.015388354376</v>
+        <v>9.007227770057998</v>
       </c>
       <c r="S10">
-        <v>0.0004179619495937716</v>
+        <v>0.0001926282973044385</v>
       </c>
       <c r="T10">
-        <v>0.0004951822043621093</v>
+        <v>0.000218016791171289</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,25 +1092,25 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>13.24529933333333</v>
+        <v>0.08457633333333332</v>
       </c>
       <c r="H11">
-        <v>39.735898</v>
+        <v>0.253729</v>
       </c>
       <c r="I11">
-        <v>0.138092916326246</v>
+        <v>0.0006590333817242832</v>
       </c>
       <c r="J11">
-        <v>0.1636061722357365</v>
+        <v>0.0007448438164860233</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.50933666666667</v>
+        <v>13.23707066666667</v>
       </c>
       <c r="N11">
-        <v>70.52800999999999</v>
+        <v>39.711212</v>
       </c>
       <c r="O11">
-        <v>0.498503419128077</v>
+        <v>0.3269676435334472</v>
       </c>
       <c r="P11">
-        <v>0.498503419128077</v>
+        <v>0.3274287660305439</v>
       </c>
       <c r="Q11">
-        <v>311.3882012781089</v>
+        <v>1.119542901060889</v>
       </c>
       <c r="R11">
-        <v>2802.493811502979</v>
+        <v>10.075886109548</v>
       </c>
       <c r="S11">
-        <v>0.06883979094600108</v>
+        <v>0.0002154825918322677</v>
       </c>
       <c r="T11">
-        <v>0.08155823624997172</v>
+        <v>0.0002438832917174995</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.24529933333333</v>
+        <v>34.04040066666667</v>
       </c>
       <c r="H12">
-        <v>39.735898</v>
+        <v>102.121202</v>
       </c>
       <c r="I12">
-        <v>0.138092916326246</v>
+        <v>0.26524867516054</v>
       </c>
       <c r="J12">
-        <v>0.1636061722357365</v>
+        <v>0.2997857786923061</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.269971</v>
+        <v>0.1427373333333334</v>
       </c>
       <c r="N12">
-        <v>0.809913</v>
+        <v>0.428212</v>
       </c>
       <c r="O12">
-        <v>0.005724596507065466</v>
+        <v>0.00352574151030053</v>
       </c>
       <c r="P12">
-        <v>0.005724596507065466</v>
+        <v>0.003530713863869763</v>
       </c>
       <c r="Q12">
-        <v>3.575846706319334</v>
+        <v>4.858836016758223</v>
       </c>
       <c r="R12">
-        <v>32.182620356874</v>
+        <v>43.72952415082401</v>
       </c>
       <c r="S12">
-        <v>0.0007905262264517116</v>
+        <v>0.0009351982645657368</v>
       </c>
       <c r="T12">
-        <v>0.0009365793221150483</v>
+        <v>0.001058457805019918</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.24529933333333</v>
+        <v>34.04040066666667</v>
       </c>
       <c r="H13">
-        <v>39.735898</v>
+        <v>102.121202</v>
       </c>
       <c r="I13">
-        <v>0.138092916326246</v>
+        <v>0.26524867516054</v>
       </c>
       <c r="J13">
-        <v>0.1636061722357365</v>
+        <v>0.2997857786923061</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,95 +1243,95 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>23.23778533333333</v>
+        <v>15.10035833333333</v>
       </c>
       <c r="N13">
-        <v>69.71335599999999</v>
+        <v>45.301075</v>
       </c>
       <c r="O13">
-        <v>0.4927453124636983</v>
+        <v>0.3729925377820741</v>
       </c>
       <c r="P13">
-        <v>0.4927453124636983</v>
+        <v>0.3735185691916712</v>
       </c>
       <c r="Q13">
-        <v>307.7914225837431</v>
+        <v>514.0222478769056</v>
       </c>
       <c r="R13">
-        <v>2770.122803253687</v>
+        <v>4626.20023089215</v>
       </c>
       <c r="S13">
-        <v>0.06804463720419944</v>
+        <v>0.09893577649146282</v>
       </c>
       <c r="T13">
-        <v>0.08061617445928762</v>
+        <v>0.1119755551211612</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.1082465</v>
+        <v>34.04040066666667</v>
       </c>
       <c r="H14">
-        <v>2.216493</v>
+        <v>102.121202</v>
       </c>
       <c r="I14">
-        <v>0.01155436259626157</v>
+        <v>0.26524867516054</v>
       </c>
       <c r="J14">
-        <v>0.009126053613216551</v>
+        <v>0.2997857786923061</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>0.1427373333333334</v>
+        <v>0.171044</v>
       </c>
       <c r="N14">
-        <v>0.428212</v>
+        <v>0.342088</v>
       </c>
       <c r="O14">
-        <v>0.003026671901159158</v>
+        <v>0.004224941834099771</v>
       </c>
       <c r="P14">
-        <v>0.003026671901159158</v>
+        <v>0.002820600179965717</v>
       </c>
       <c r="Q14">
-        <v>0.158188150086</v>
+        <v>5.822406291629334</v>
       </c>
       <c r="R14">
-        <v>0.949128900516</v>
+        <v>34.934437749776</v>
       </c>
       <c r="S14">
-        <v>3.497126460590927E-05</v>
+        <v>0.001120660224125306</v>
       </c>
       <c r="T14">
-        <v>2.762157003959455E-05</v>
+        <v>0.0008455758213306811</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,25 +1340,25 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.1082465</v>
+        <v>34.04040066666667</v>
       </c>
       <c r="H15">
-        <v>2.216493</v>
+        <v>102.121202</v>
       </c>
       <c r="I15">
-        <v>0.01155436259626157</v>
+        <v>0.26524867516054</v>
       </c>
       <c r="J15">
-        <v>0.009126053613216551</v>
+        <v>0.2997857786923061</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,33 +1367,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>23.50933666666667</v>
+        <v>11.833134</v>
       </c>
       <c r="N15">
-        <v>70.52800999999999</v>
+        <v>35.499402</v>
       </c>
       <c r="O15">
-        <v>0.498503419128077</v>
+        <v>0.2922891353400783</v>
       </c>
       <c r="P15">
-        <v>0.498503419128077</v>
+        <v>0.2927013507339495</v>
       </c>
       <c r="Q15">
-        <v>26.054140078155</v>
+        <v>402.804622502356</v>
       </c>
       <c r="R15">
-        <v>156.32484046893</v>
+        <v>3625.241602521204</v>
       </c>
       <c r="S15">
-        <v>0.005759889260081958</v>
+        <v>0.07752930591277554</v>
       </c>
       <c r="T15">
-        <v>0.004549368929334592</v>
+        <v>0.08774770235406684</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,25 +1402,25 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.1082465</v>
+        <v>34.04040066666667</v>
       </c>
       <c r="H16">
-        <v>2.216493</v>
+        <v>102.121202</v>
       </c>
       <c r="I16">
-        <v>0.01155436259626157</v>
+        <v>0.26524867516054</v>
       </c>
       <c r="J16">
-        <v>0.009126053613216551</v>
+        <v>0.2997857786923061</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.269971</v>
+        <v>13.23707066666667</v>
       </c>
       <c r="N16">
-        <v>0.809913</v>
+        <v>39.711212</v>
       </c>
       <c r="O16">
-        <v>0.005724596507065466</v>
+        <v>0.3269676435334472</v>
       </c>
       <c r="P16">
-        <v>0.005724596507065466</v>
+        <v>0.3274287660305439</v>
       </c>
       <c r="Q16">
-        <v>0.2991944158515</v>
+        <v>450.5951891463138</v>
       </c>
       <c r="R16">
-        <v>1.795166495109</v>
+        <v>4055.356702316824</v>
       </c>
       <c r="S16">
-        <v>6.614406375992686E-05</v>
+        <v>0.08672773426761056</v>
       </c>
       <c r="T16">
-        <v>5.224297463751165E-05</v>
+        <v>0.09815848759072753</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.1082465</v>
+        <v>1.759442</v>
       </c>
       <c r="H17">
-        <v>2.216493</v>
+        <v>3.518884</v>
       </c>
       <c r="I17">
-        <v>0.01155436259626157</v>
+        <v>0.0137098756296017</v>
       </c>
       <c r="J17">
-        <v>0.009126053613216551</v>
+        <v>0.01032999376630816</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>23.23778533333333</v>
+        <v>0.1427373333333334</v>
       </c>
       <c r="N17">
-        <v>69.71335599999999</v>
+        <v>0.428212</v>
       </c>
       <c r="O17">
-        <v>0.4927453124636983</v>
+        <v>0.00352574151030053</v>
       </c>
       <c r="P17">
-        <v>0.4927453124636983</v>
+        <v>0.003530713863869763</v>
       </c>
       <c r="Q17">
-        <v>25.753194263418</v>
+        <v>0.2511380592346667</v>
       </c>
       <c r="R17">
-        <v>154.519165580508</v>
+        <v>1.506828355408</v>
       </c>
       <c r="S17">
-        <v>0.005693358007813776</v>
+        <v>4.833747760834431E-05</v>
       </c>
       <c r="T17">
-        <v>0.004496820139204852</v>
+        <v>3.647225220439245E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>26.21174933333333</v>
+        <v>1.759442</v>
       </c>
       <c r="H18">
-        <v>78.635248</v>
+        <v>3.518884</v>
       </c>
       <c r="I18">
-        <v>0.2732786037038248</v>
+        <v>0.0137098756296017</v>
       </c>
       <c r="J18">
-        <v>0.3237679925614832</v>
+        <v>0.01032999376630816</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.1427373333333334</v>
+        <v>15.10035833333333</v>
       </c>
       <c r="N18">
-        <v>0.428212</v>
+        <v>45.301075</v>
       </c>
       <c r="O18">
-        <v>0.003026671901159158</v>
+        <v>0.3729925377820741</v>
       </c>
       <c r="P18">
-        <v>0.003026671901159158</v>
+        <v>0.3735185691916712</v>
       </c>
       <c r="Q18">
-        <v>3.741395201841778</v>
+        <v>26.56820466671666</v>
       </c>
       <c r="R18">
-        <v>33.67255681657601</v>
+        <v>159.4092280003</v>
       </c>
       <c r="S18">
-        <v>0.0008271246710183756</v>
+        <v>0.005113681303761749</v>
       </c>
       <c r="T18">
-        <v>0.0009799394855805486</v>
+        <v>0.003858444491350307</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>26.21174933333333</v>
+        <v>1.759442</v>
       </c>
       <c r="H19">
-        <v>78.635248</v>
+        <v>3.518884</v>
       </c>
       <c r="I19">
-        <v>0.2732786037038248</v>
+        <v>0.0137098756296017</v>
       </c>
       <c r="J19">
-        <v>0.3237679925614832</v>
+        <v>0.01032999376630816</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M19">
-        <v>23.50933666666667</v>
+        <v>0.171044</v>
       </c>
       <c r="N19">
-        <v>70.52800999999999</v>
+        <v>0.342088</v>
       </c>
       <c r="O19">
-        <v>0.498503419128077</v>
+        <v>0.004224941834099771</v>
       </c>
       <c r="P19">
-        <v>0.498503419128077</v>
+        <v>0.002820600179965717</v>
       </c>
       <c r="Q19">
-        <v>616.2208396996089</v>
+        <v>0.300941997448</v>
       </c>
       <c r="R19">
-        <v>5545.98755729648</v>
+        <v>1.203767989792</v>
       </c>
       <c r="S19">
-        <v>0.1362303183209034</v>
+        <v>5.792342708780915E-05</v>
       </c>
       <c r="T19">
-        <v>0.1613994512961332</v>
+        <v>2.913678227629353E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1653,22 +1653,22 @@
         <v>24</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>26.21174933333333</v>
+        <v>1.759442</v>
       </c>
       <c r="H20">
-        <v>78.635248</v>
+        <v>3.518884</v>
       </c>
       <c r="I20">
-        <v>0.2732786037038248</v>
+        <v>0.0137098756296017</v>
       </c>
       <c r="J20">
-        <v>0.3237679925614832</v>
+        <v>0.01032999376630816</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,33 +1677,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.269971</v>
+        <v>11.833134</v>
       </c>
       <c r="N20">
-        <v>0.809913</v>
+        <v>35.499402</v>
       </c>
       <c r="O20">
-        <v>0.005724596507065466</v>
+        <v>0.2922891353400783</v>
       </c>
       <c r="P20">
-        <v>0.005724596507065466</v>
+        <v>0.2927013507339495</v>
       </c>
       <c r="Q20">
-        <v>7.076412179269334</v>
+        <v>20.819712951228</v>
       </c>
       <c r="R20">
-        <v>63.687709613424</v>
+        <v>124.918277707368</v>
       </c>
       <c r="S20">
-        <v>0.001564409740218643</v>
+        <v>0.004007247693396292</v>
       </c>
       <c r="T20">
-        <v>0.001853441119317065</v>
+        <v>0.003023603128471677</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1715,22 +1715,22 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>26.21174933333333</v>
+        <v>1.759442</v>
       </c>
       <c r="H21">
-        <v>78.635248</v>
+        <v>3.518884</v>
       </c>
       <c r="I21">
-        <v>0.2732786037038248</v>
+        <v>0.0137098756296017</v>
       </c>
       <c r="J21">
-        <v>0.3237679925614832</v>
+        <v>0.01032999376630816</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,33 +1739,33 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>23.23778533333333</v>
+        <v>13.23707066666667</v>
       </c>
       <c r="N21">
-        <v>69.71335599999999</v>
+        <v>39.711212</v>
       </c>
       <c r="O21">
-        <v>0.4927453124636983</v>
+        <v>0.3269676435334472</v>
       </c>
       <c r="P21">
-        <v>0.4927453124636983</v>
+        <v>0.3274287660305439</v>
       </c>
       <c r="Q21">
-        <v>609.103004219143</v>
+        <v>23.28985808790133</v>
       </c>
       <c r="R21">
-        <v>5481.927037972288</v>
+        <v>139.739148527408</v>
       </c>
       <c r="S21">
-        <v>0.1346567509716843</v>
+        <v>0.004482685727747503</v>
       </c>
       <c r="T21">
-        <v>0.1595351606604524</v>
+        <v>0.003382337112005493</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>11.50197566666667</v>
+        <v>40.80192266666666</v>
       </c>
       <c r="H22">
-        <v>34.505927</v>
+        <v>122.405768</v>
       </c>
       <c r="I22">
-        <v>0.1199173626319091</v>
+        <v>0.3179356211847997</v>
       </c>
       <c r="J22">
-        <v>0.1420726073918287</v>
+        <v>0.359332907933357</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1807,27 +1807,27 @@
         <v>0.428212</v>
       </c>
       <c r="O22">
-        <v>0.003026671901159158</v>
+        <v>0.00352574151030053</v>
       </c>
       <c r="P22">
-        <v>0.003026671901159158</v>
+        <v>0.003530713863869763</v>
       </c>
       <c r="Q22">
-        <v>1.641761334724889</v>
+        <v>5.82395763631289</v>
       </c>
       <c r="R22">
-        <v>14.775852012524</v>
+        <v>52.415618726816</v>
       </c>
       <c r="S22">
-        <v>0.0003629505119391126</v>
+        <v>0.001120958817214433</v>
       </c>
       <c r="T22">
-        <v>0.0004300071687172649</v>
+        <v>0.001268701679784941</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>11.50197566666667</v>
+        <v>40.80192266666666</v>
       </c>
       <c r="H23">
-        <v>34.505927</v>
+        <v>122.405768</v>
       </c>
       <c r="I23">
-        <v>0.1199173626319091</v>
+        <v>0.3179356211847997</v>
       </c>
       <c r="J23">
-        <v>0.1420726073918287</v>
+        <v>0.359332907933357</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,33 +1863,33 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>23.50933666666667</v>
+        <v>15.10035833333333</v>
       </c>
       <c r="N23">
-        <v>70.52800999999999</v>
+        <v>45.301075</v>
       </c>
       <c r="O23">
-        <v>0.498503419128077</v>
+        <v>0.3729925377820741</v>
       </c>
       <c r="P23">
-        <v>0.498503419128077</v>
+        <v>0.3735185691916712</v>
       </c>
       <c r="Q23">
-        <v>270.4038182794744</v>
+        <v>616.1236529556221</v>
       </c>
       <c r="R23">
-        <v>2433.63436451527</v>
+        <v>5545.1128766006</v>
       </c>
       <c r="S23">
-        <v>0.05977921528482819</v>
+        <v>0.1185876141970386</v>
       </c>
       <c r="T23">
-        <v>0.07082368054926751</v>
+        <v>0.13421751363475</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,108 +1907,480 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>11.50197566666667</v>
+        <v>40.80192266666666</v>
       </c>
       <c r="H24">
-        <v>34.505927</v>
+        <v>122.405768</v>
       </c>
       <c r="I24">
-        <v>0.1199173626319091</v>
+        <v>0.3179356211847997</v>
       </c>
       <c r="J24">
-        <v>0.1420726073918287</v>
+        <v>0.359332907933357</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M24">
-        <v>0.269971</v>
+        <v>0.171044</v>
       </c>
       <c r="N24">
-        <v>0.809913</v>
+        <v>0.342088</v>
       </c>
       <c r="O24">
-        <v>0.005724596507065466</v>
+        <v>0.004224941834099771</v>
       </c>
       <c r="P24">
-        <v>0.005724596507065466</v>
+        <v>0.002820600179965717</v>
       </c>
       <c r="Q24">
-        <v>3.105199872705667</v>
+        <v>6.978924060597333</v>
       </c>
       <c r="R24">
-        <v>27.946798854351</v>
+        <v>41.873544363584</v>
       </c>
       <c r="S24">
-        <v>0.0006864785152591299</v>
+        <v>0.001343259506494158</v>
       </c>
       <c r="T24">
-        <v>0.0008133083520249459</v>
+        <v>0.001013534464784431</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>40.80192266666666</v>
+      </c>
+      <c r="H25">
+        <v>122.405768</v>
+      </c>
+      <c r="I25">
+        <v>0.3179356211847997</v>
+      </c>
+      <c r="J25">
+        <v>0.359332907933357</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>11.833134</v>
+      </c>
+      <c r="N25">
+        <v>35.499402</v>
+      </c>
+      <c r="O25">
+        <v>0.2922891353400783</v>
+      </c>
+      <c r="P25">
+        <v>0.2927013507339495</v>
+      </c>
+      <c r="Q25">
+        <v>482.8146183723039</v>
+      </c>
+      <c r="R25">
+        <v>4345.331565350735</v>
+      </c>
+      <c r="S25">
+        <v>0.0929291278099158</v>
+      </c>
+      <c r="T25">
+        <v>0.1051772275152515</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>40.80192266666666</v>
+      </c>
+      <c r="H26">
+        <v>122.405768</v>
+      </c>
+      <c r="I26">
+        <v>0.3179356211847997</v>
+      </c>
+      <c r="J26">
+        <v>0.359332907933357</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>13.23707066666667</v>
+      </c>
+      <c r="N26">
+        <v>39.711212</v>
+      </c>
+      <c r="O26">
+        <v>0.3269676435334472</v>
+      </c>
+      <c r="P26">
+        <v>0.3274287660305439</v>
+      </c>
+      <c r="Q26">
+        <v>540.0979336745351</v>
+      </c>
+      <c r="R26">
+        <v>4860.881403070815</v>
+      </c>
+      <c r="S26">
+        <v>0.1039546608541367</v>
+      </c>
+      <c r="T26">
+        <v>0.1176559306387861</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>11.50197566666667</v>
-      </c>
-      <c r="H25">
-        <v>34.505927</v>
-      </c>
-      <c r="I25">
-        <v>0.1199173626319091</v>
-      </c>
-      <c r="J25">
-        <v>0.1420726073918287</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>23.23778533333333</v>
-      </c>
-      <c r="N25">
-        <v>69.71335599999999</v>
-      </c>
-      <c r="O25">
-        <v>0.4927453124636983</v>
-      </c>
-      <c r="P25">
-        <v>0.4927453124636983</v>
-      </c>
-      <c r="Q25">
-        <v>267.2804414512235</v>
-      </c>
-      <c r="R25">
-        <v>2405.523973061011</v>
-      </c>
-      <c r="S25">
-        <v>0.05908871831988268</v>
-      </c>
-      <c r="T25">
-        <v>0.07000561132181897</v>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>9.052525333333334</v>
+      </c>
+      <c r="H27">
+        <v>27.157576</v>
+      </c>
+      <c r="I27">
+        <v>0.07053883927621295</v>
+      </c>
+      <c r="J27">
+        <v>0.07972345516022698</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M27">
+        <v>0.1427373333333334</v>
+      </c>
+      <c r="N27">
+        <v>0.428212</v>
+      </c>
+      <c r="O27">
+        <v>0.00352574151030053</v>
+      </c>
+      <c r="P27">
+        <v>0.003530713863869763</v>
+      </c>
+      <c r="Q27">
+        <v>1.292133326012445</v>
+      </c>
+      <c r="R27">
+        <v>11.629199934112</v>
+      </c>
+      <c r="S27">
+        <v>0.0002487017137245614</v>
+      </c>
+      <c r="T27">
+        <v>0.0002814807084098128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>9.052525333333334</v>
+      </c>
+      <c r="H28">
+        <v>27.157576</v>
+      </c>
+      <c r="I28">
+        <v>0.07053883927621295</v>
+      </c>
+      <c r="J28">
+        <v>0.07972345516022698</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>15.10035833333333</v>
+      </c>
+      <c r="N28">
+        <v>45.301075</v>
+      </c>
+      <c r="O28">
+        <v>0.3729925377820741</v>
+      </c>
+      <c r="P28">
+        <v>0.3735185691916712</v>
+      </c>
+      <c r="Q28">
+        <v>136.6963763549111</v>
+      </c>
+      <c r="R28">
+        <v>1230.2673871942</v>
+      </c>
+      <c r="S28">
+        <v>0.02631046067383651</v>
+      </c>
+      <c r="T28">
+        <v>0.02977819090246434</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>9.052525333333334</v>
+      </c>
+      <c r="H29">
+        <v>27.157576</v>
+      </c>
+      <c r="I29">
+        <v>0.07053883927621295</v>
+      </c>
+      <c r="J29">
+        <v>0.07972345516022698</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.5</v>
+      </c>
+      <c r="M29">
+        <v>0.171044</v>
+      </c>
+      <c r="N29">
+        <v>0.342088</v>
+      </c>
+      <c r="O29">
+        <v>0.004224941834099771</v>
+      </c>
+      <c r="P29">
+        <v>0.002820600179965717</v>
+      </c>
+      <c r="Q29">
+        <v>1.548380143114667</v>
+      </c>
+      <c r="R29">
+        <v>9.290280858688</v>
+      </c>
+      <c r="S29">
+        <v>0.0002980224929869121</v>
+      </c>
+      <c r="T29">
+        <v>0.000224867991972425</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>9.052525333333334</v>
+      </c>
+      <c r="H30">
+        <v>27.157576</v>
+      </c>
+      <c r="I30">
+        <v>0.07053883927621295</v>
+      </c>
+      <c r="J30">
+        <v>0.07972345516022698</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>11.833134</v>
+      </c>
+      <c r="N30">
+        <v>35.499402</v>
+      </c>
+      <c r="O30">
+        <v>0.2922891353400783</v>
+      </c>
+      <c r="P30">
+        <v>0.2927013507339495</v>
+      </c>
+      <c r="Q30">
+        <v>107.119745307728</v>
+      </c>
+      <c r="R30">
+        <v>964.0777077695518</v>
+      </c>
+      <c r="S30">
+        <v>0.02061773633993704</v>
+      </c>
+      <c r="T30">
+        <v>0.02333516301057589</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>9.052525333333334</v>
+      </c>
+      <c r="H31">
+        <v>27.157576</v>
+      </c>
+      <c r="I31">
+        <v>0.07053883927621295</v>
+      </c>
+      <c r="J31">
+        <v>0.07972345516022698</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>13.23707066666667</v>
+      </c>
+      <c r="N31">
+        <v>39.711212</v>
+      </c>
+      <c r="O31">
+        <v>0.3269676435334472</v>
+      </c>
+      <c r="P31">
+        <v>0.3274287660305439</v>
+      </c>
+      <c r="Q31">
+        <v>119.8289175491235</v>
+      </c>
+      <c r="R31">
+        <v>1078.460257942112</v>
+      </c>
+      <c r="S31">
+        <v>0.02306391805572792</v>
+      </c>
+      <c r="T31">
+        <v>0.02610375254680452</v>
       </c>
     </row>
   </sheetData>
